--- a/core/conf/TestPlan.xlsx
+++ b/core/conf/TestPlan.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14780"/>
+    <workbookView windowHeight="14780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestDbSource" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Oracle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
-  <si>
-    <t>case_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>db_type</t>
   </si>
@@ -38,15 +35,9 @@
     <t>db_name</t>
   </si>
   <si>
-    <t>db_db2</t>
-  </si>
-  <si>
     <t>db2</t>
   </si>
   <si>
-    <t>db_gaussdb</t>
-  </si>
-  <si>
     <t>gaussdb</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>Datapipeline123</t>
   </si>
   <si>
-    <t>db_mysql</t>
-  </si>
-  <si>
     <t>mysql</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>root</t>
   </si>
   <si>
-    <t>db_oracle</t>
-  </si>
-  <si>
     <t>oracle</t>
   </si>
   <si>
@@ -83,31 +68,19 @@
     <t>orcl</t>
   </si>
   <si>
-    <t>db_redshift</t>
-  </si>
-  <si>
     <t>redshift</t>
   </si>
   <si>
-    <t>db_sequoiadb</t>
-  </si>
-  <si>
     <t>sequoiadb</t>
   </si>
   <si>
-    <t>db_sqlserver</t>
-  </si>
-  <si>
     <t>sqlserver</t>
   </si>
   <si>
-    <t>db_tidb</t>
-  </si>
-  <si>
     <t>tidb</t>
   </si>
   <si>
-    <t>db_greenplum</t>
+    <t>39.106.214.41</t>
   </si>
   <si>
     <t>greenplum</t>
@@ -116,16 +89,10 @@
     <t>47.93.239.84</t>
   </si>
   <si>
-    <t>db_postgresql</t>
-  </si>
-  <si>
     <t>postgresql</t>
   </si>
   <si>
     <t>47.94.107.125</t>
-  </si>
-  <si>
-    <t>39.106.214.41</t>
   </si>
 </sst>
 </file>
@@ -133,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,7 +137,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,17 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,21 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +214,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,23 +229,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,32 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,193 +275,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,15 +480,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +500,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -552,6 +525,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +555,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,171 +572,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,197 +1051,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.5333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.0666666666667" customWidth="1"/>
-    <col min="3" max="4" width="13.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="17.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.6" customWidth="1"/>
+    <col min="1" max="1" width="16.0666666666667" customWidth="1"/>
+    <col min="2" max="3" width="13.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>15400</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4">
+        <v>3306</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>15400</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5">
+        <v>1521</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>123456</v>
       </c>
-      <c r="F4">
-        <v>3306</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="E9">
+        <v>4000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>123456</v>
       </c>
-      <c r="F5">
-        <v>1521</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="E10">
+        <v>5432</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>123456</v>
       </c>
-      <c r="F10">
+      <c r="E11">
         <v>5432</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>123456</v>
-      </c>
-      <c r="F11">
-        <v>5432</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1286,86 +1234,57 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.9333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.6" customWidth="1"/>
     <col min="3" max="3" width="14.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>123456</v>
       </c>
-      <c r="F1">
-        <v>5432</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2">
-        <v>123456</v>
-      </c>
-      <c r="F2">
-        <v>5432</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>123456</v>
-      </c>
-      <c r="F3">
-        <v>4000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>1521</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/core/conf/TestPlan.xlsx
+++ b/core/conf/TestPlan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>db_type</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>47.94.107.125</t>
+  </si>
+  <si>
+    <t>39.105.17.117</t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,13 +140,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,25 +147,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,34 +178,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +203,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +218,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,22 +256,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,175 +296,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,21 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -514,17 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,11 +535,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,142 +580,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,13 +1240,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.9333333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="16.1166666666667" customWidth="1"/>
     <col min="3" max="3" width="14.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1272,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>

--- a/core/conf/TestPlan.xlsx
+++ b/core/conf/TestPlan.xlsx
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="1" outlineLevelCol="5"/>
